--- a/natmiOut/OldD0/LR-pairs_lrc2p/Gdnf-Gfra2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Gdnf-Gfra2.xlsx
@@ -525,16 +525,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.674369505729859</v>
+        <v>0.697917</v>
       </c>
       <c r="H2">
-        <v>0.674369505729859</v>
+        <v>2.093751</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -543,34 +543,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.7230225635008</v>
+        <v>10.837667</v>
       </c>
       <c r="N2">
-        <v>10.7230225635008</v>
+        <v>32.513001</v>
       </c>
       <c r="O2">
-        <v>0.5561607929543383</v>
+        <v>0.5477430134675739</v>
       </c>
       <c r="P2">
-        <v>0.5561607929543383</v>
+        <v>0.5477430134675739</v>
       </c>
       <c r="Q2">
-        <v>7.23127942607816</v>
+        <v>7.563792039639001</v>
       </c>
       <c r="R2">
-        <v>7.23127942607816</v>
+        <v>68.074128356751</v>
       </c>
       <c r="S2">
-        <v>0.5561607929543383</v>
+        <v>0.5477430134675739</v>
       </c>
       <c r="T2">
-        <v>0.5561607929543383</v>
+        <v>0.5477430134675739</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,16 +587,16 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.674369505729859</v>
+        <v>0.697917</v>
       </c>
       <c r="H3">
-        <v>0.674369505729859</v>
+        <v>2.093751</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -605,34 +605,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.55741341714406</v>
+        <v>8.948376333333334</v>
       </c>
       <c r="N3">
-        <v>8.55741341714406</v>
+        <v>26.845129</v>
       </c>
       <c r="O3">
-        <v>0.4438392070456617</v>
+        <v>0.4522569865324261</v>
       </c>
       <c r="P3">
-        <v>0.4438392070456617</v>
+        <v>0.4522569865324261</v>
       </c>
       <c r="Q3">
-        <v>5.770858656445504</v>
+        <v>6.245223965431</v>
       </c>
       <c r="R3">
-        <v>5.770858656445504</v>
+        <v>56.207015688879</v>
       </c>
       <c r="S3">
-        <v>0.4438392070456617</v>
+        <v>0.4522569865324261</v>
       </c>
       <c r="T3">
-        <v>0.4438392070456617</v>
+        <v>0.4522569865324261</v>
       </c>
     </row>
   </sheetData>
